--- a/Keamanan-data-informasi/portswigger-lab.xlsx
+++ b/Keamanan-data-informasi/portswigger-lab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Materi Kuliah Smt 4\Keamanan-data-informasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stikesmahardika\Pictures\Materi-Kuliah-Smt-4\Keamanan-data-informasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149D1BF-83D2-4A6C-9628-14F68C0A3FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96B0D37-1732-4FE2-B281-09F7611795C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{36086893-E05E-4C3B-97C1-0349689D80D3}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
